--- a/hammadde.xlsx
+++ b/hammadde.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\rynSoft\techizApi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45A49F8B-22AD-4B45-BED4-53E7F2F59DC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6945008E-672E-418A-B8A9-AA89F8F1E044}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="43080" yWindow="4335" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-80" yWindow="-80" windowWidth="28960" windowHeight="17560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MALZEME" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="77">
+  <si>
+    <t>ACIKLAMA</t>
+  </si>
   <si>
     <t>PARTI_NO</t>
   </si>
@@ -33,9 +36,6 @@
     <t>MIKTAR</t>
   </si>
   <si>
-    <t>DEPO-N27</t>
-  </si>
-  <si>
     <t>BIRIM</t>
   </si>
   <si>
@@ -159,7 +159,103 @@
     <t>PN_41</t>
   </si>
   <si>
+    <t>PN_42</t>
+  </si>
+  <si>
+    <t>PN_43</t>
+  </si>
+  <si>
+    <t>PN_44</t>
+  </si>
+  <si>
+    <t>PN_45</t>
+  </si>
+  <si>
+    <t>PN_46</t>
+  </si>
+  <si>
+    <t>PN_47</t>
+  </si>
+  <si>
+    <t>PN_48</t>
+  </si>
+  <si>
     <t>Ad.</t>
+  </si>
+  <si>
+    <t>M01</t>
+  </si>
+  <si>
+    <t>M04</t>
+  </si>
+  <si>
+    <t>M02</t>
+  </si>
+  <si>
+    <t>M03</t>
+  </si>
+  <si>
+    <t>M05</t>
+  </si>
+  <si>
+    <t>M06</t>
+  </si>
+  <si>
+    <t>M07</t>
+  </si>
+  <si>
+    <t>M08</t>
+  </si>
+  <si>
+    <t>M09</t>
+  </si>
+  <si>
+    <t>M10</t>
+  </si>
+  <si>
+    <t>M11</t>
+  </si>
+  <si>
+    <t>M12</t>
+  </si>
+  <si>
+    <t>M13</t>
+  </si>
+  <si>
+    <t>M14</t>
+  </si>
+  <si>
+    <t>M15</t>
+  </si>
+  <si>
+    <t>M16</t>
+  </si>
+  <si>
+    <t>M17</t>
+  </si>
+  <si>
+    <t>PN_12</t>
+  </si>
+  <si>
+    <t>PN_13</t>
+  </si>
+  <si>
+    <t>PN_14</t>
+  </si>
+  <si>
+    <t>PN_15</t>
+  </si>
+  <si>
+    <t>PN_16</t>
+  </si>
+  <si>
+    <t>PN_17</t>
+  </si>
+  <si>
+    <t>PN_18</t>
+  </si>
+  <si>
+    <t>PN_19</t>
   </si>
 </sst>
 </file>
@@ -525,10 +621,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="B1:H19"/>
+  <dimension ref="B1:I19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="D12" sqref="D12:D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -540,9 +636,10 @@
     <col min="6" max="6" width="15" customWidth="1"/>
     <col min="7" max="7" width="16.453125" customWidth="1"/>
     <col min="8" max="8" width="18.36328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B1" s="1" t="s">
         <v>5</v>
       </c>
@@ -550,10 +647,10 @@
         <v>4</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>6</v>
@@ -564,13 +661,16 @@
       <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="I1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
     </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B3" s="1" t="s">
         <v>9</v>
       </c>
@@ -587,19 +687,25 @@
         <v>11</v>
       </c>
       <c r="G3" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="H3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.35">
+        <v>52</v>
+      </c>
+      <c r="I3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B4" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="D4" t="s">
+        <v>69</v>
+      </c>
       <c r="E4">
         <v>120</v>
       </c>
@@ -607,16 +713,25 @@
         <v>12</v>
       </c>
       <c r="G4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.35">
+        <v>51</v>
+      </c>
+      <c r="H4" t="s">
+        <v>52</v>
+      </c>
+      <c r="I4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B5" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>27</v>
       </c>
+      <c r="D5" t="s">
+        <v>70</v>
+      </c>
       <c r="E5">
         <v>130</v>
       </c>
@@ -624,16 +739,25 @@
         <v>13</v>
       </c>
       <c r="G5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.35">
+        <v>51</v>
+      </c>
+      <c r="H5" t="s">
+        <v>52</v>
+      </c>
+      <c r="I5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B6" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>28</v>
       </c>
+      <c r="D6" t="s">
+        <v>71</v>
+      </c>
       <c r="E6">
         <v>140</v>
       </c>
@@ -641,16 +765,25 @@
         <v>14</v>
       </c>
       <c r="G6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.35">
+        <v>51</v>
+      </c>
+      <c r="H6" t="s">
+        <v>52</v>
+      </c>
+      <c r="I6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B7" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>29</v>
       </c>
+      <c r="D7" t="s">
+        <v>72</v>
+      </c>
       <c r="E7">
         <v>150</v>
       </c>
@@ -658,16 +791,25 @@
         <v>15</v>
       </c>
       <c r="G7" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.35">
+        <v>51</v>
+      </c>
+      <c r="H7" t="s">
+        <v>52</v>
+      </c>
+      <c r="I7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B8" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>30</v>
       </c>
+      <c r="D8" t="s">
+        <v>73</v>
+      </c>
       <c r="E8">
         <v>160</v>
       </c>
@@ -675,16 +817,25 @@
         <v>16</v>
       </c>
       <c r="G8" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.35">
+        <v>51</v>
+      </c>
+      <c r="H8" t="s">
+        <v>52</v>
+      </c>
+      <c r="I8" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B9" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>31</v>
       </c>
+      <c r="D9" t="s">
+        <v>74</v>
+      </c>
       <c r="E9">
         <v>170</v>
       </c>
@@ -692,16 +843,25 @@
         <v>17</v>
       </c>
       <c r="G9" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.35">
+        <v>51</v>
+      </c>
+      <c r="H9" t="s">
+        <v>52</v>
+      </c>
+      <c r="I9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B10" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>32</v>
       </c>
+      <c r="D10" t="s">
+        <v>75</v>
+      </c>
       <c r="E10">
         <v>180</v>
       </c>
@@ -709,16 +869,25 @@
         <v>18</v>
       </c>
       <c r="G10" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.35">
+        <v>51</v>
+      </c>
+      <c r="H10" t="s">
+        <v>52</v>
+      </c>
+      <c r="I10" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B11" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>33</v>
       </c>
+      <c r="D11" t="s">
+        <v>76</v>
+      </c>
       <c r="E11">
         <v>190</v>
       </c>
@@ -726,10 +895,16 @@
         <v>19</v>
       </c>
       <c r="G11" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.35">
+        <v>51</v>
+      </c>
+      <c r="H11" t="s">
+        <v>52</v>
+      </c>
+      <c r="I11" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B12" s="1" t="s">
         <v>17</v>
       </c>
@@ -746,16 +921,25 @@
         <v>41</v>
       </c>
       <c r="G12" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.35">
+        <v>51</v>
+      </c>
+      <c r="H12" t="s">
+        <v>54</v>
+      </c>
+      <c r="I12" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B13" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>35</v>
       </c>
+      <c r="D13" t="s">
+        <v>44</v>
+      </c>
       <c r="E13">
         <v>420</v>
       </c>
@@ -763,16 +947,25 @@
         <v>42</v>
       </c>
       <c r="G13" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.35">
+        <v>51</v>
+      </c>
+      <c r="H13" t="s">
+        <v>54</v>
+      </c>
+      <c r="I13" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B14" s="1" t="s">
         <v>19</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>36</v>
       </c>
+      <c r="D14" t="s">
+        <v>45</v>
+      </c>
       <c r="E14">
         <v>430</v>
       </c>
@@ -780,16 +973,25 @@
         <v>43</v>
       </c>
       <c r="G14" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.35">
+        <v>51</v>
+      </c>
+      <c r="H14" t="s">
+        <v>54</v>
+      </c>
+      <c r="I14" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B15" s="1" t="s">
         <v>20</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>37</v>
       </c>
+      <c r="D15" t="s">
+        <v>46</v>
+      </c>
       <c r="E15">
         <v>440</v>
       </c>
@@ -797,16 +999,25 @@
         <v>44</v>
       </c>
       <c r="G15" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.35">
+        <v>51</v>
+      </c>
+      <c r="H15" t="s">
+        <v>54</v>
+      </c>
+      <c r="I15" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B16" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>38</v>
       </c>
+      <c r="D16" t="s">
+        <v>47</v>
+      </c>
       <c r="E16">
         <v>450</v>
       </c>
@@ -814,16 +1025,25 @@
         <v>45</v>
       </c>
       <c r="G16" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.35">
+        <v>51</v>
+      </c>
+      <c r="H16" t="s">
+        <v>54</v>
+      </c>
+      <c r="I16" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B17" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>39</v>
       </c>
+      <c r="D17" t="s">
+        <v>48</v>
+      </c>
       <c r="E17">
         <v>460</v>
       </c>
@@ -831,16 +1051,25 @@
         <v>46</v>
       </c>
       <c r="G17" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.35">
+        <v>51</v>
+      </c>
+      <c r="H17" t="s">
+        <v>54</v>
+      </c>
+      <c r="I17" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B18" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>40</v>
       </c>
+      <c r="D18" t="s">
+        <v>49</v>
+      </c>
       <c r="E18">
         <v>470</v>
       </c>
@@ -848,16 +1077,25 @@
         <v>47</v>
       </c>
       <c r="G18" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.35">
+        <v>51</v>
+      </c>
+      <c r="H18" t="s">
+        <v>54</v>
+      </c>
+      <c r="I18" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B19" s="1" t="s">
         <v>24</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>41</v>
       </c>
+      <c r="D19" t="s">
+        <v>50</v>
+      </c>
       <c r="E19">
         <v>480</v>
       </c>
@@ -865,12 +1103,18 @@
         <v>48</v>
       </c>
       <c r="G19" t="s">
-        <v>44</v>
+        <v>51</v>
+      </c>
+      <c r="H19" t="s">
+        <v>54</v>
+      </c>
+      <c r="I19" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>